--- a/.idea/説明書.xlsx
+++ b/.idea/説明書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="23715" windowHeight="9870" firstSheet="3" activeTab="13"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="23715" windowHeight="9870" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="企画" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="127">
   <si>
     <t>Android</t>
     <phoneticPr fontId="1"/>
@@ -699,6 +699,10 @@
     <rPh sb="0" eb="3">
       <t>チュウイガ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リセット</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1560,6 +1564,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1569,13 +1576,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5564,6 +5568,96 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="角丸四角形吹き出し 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2219325" y="5153025"/>
+          <a:ext cx="2733675" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -61949"/>
+            <a:gd name="adj2" fmla="val -249407"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>リセット　ボタン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・タップで音量を初期状態に戻す</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>初期状態：効果音、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>BGM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の値が真ん中</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7702,12 +7796,12 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="H4" s="30"/>
-      <c r="I4" s="90" t="s">
+      <c r="I4" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
       <c r="M4" s="18"/>
       <c r="N4" s="19" t="s">
         <v>90</v>
@@ -7718,10 +7812,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="H5" s="30"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
       <c r="M5" s="18"/>
       <c r="N5" s="24"/>
       <c r="O5" s="25"/>
@@ -7873,38 +7967,38 @@
       <c r="Q17" s="31"/>
     </row>
     <row r="18" spans="8:17" x14ac:dyDescent="0.15">
-      <c r="H18" s="89" t="s">
+      <c r="H18" s="90" t="s">
         <v>93</v>
       </c>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87">
+      <c r="I18" s="88"/>
+      <c r="J18" s="88">
         <v>1</v>
       </c>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87" t="s">
+      <c r="K18" s="88"/>
+      <c r="L18" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="M18" s="87"/>
-      <c r="N18" s="87">
+      <c r="M18" s="88"/>
+      <c r="N18" s="88">
         <v>4</v>
       </c>
-      <c r="O18" s="87"/>
-      <c r="P18" s="87" t="s">
+      <c r="O18" s="88"/>
+      <c r="P18" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="Q18" s="88"/>
+      <c r="Q18" s="89"/>
     </row>
     <row r="19" spans="8:17" x14ac:dyDescent="0.15">
-      <c r="H19" s="89"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="87"/>
-      <c r="M19" s="87"/>
-      <c r="N19" s="87"/>
-      <c r="O19" s="87"/>
-      <c r="P19" s="87"/>
-      <c r="Q19" s="88"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="88"/>
+      <c r="L19" s="88"/>
+      <c r="M19" s="88"/>
+      <c r="N19" s="88"/>
+      <c r="O19" s="88"/>
+      <c r="P19" s="88"/>
+      <c r="Q19" s="89"/>
     </row>
     <row r="20" spans="8:17" x14ac:dyDescent="0.15">
       <c r="H20" s="30"/>
@@ -8000,17 +8094,17 @@
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="H5" s="30"/>
-      <c r="I5" s="87">
+      <c r="I5" s="88">
         <v>27</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="88"/>
       <c r="K5" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="L5" s="87">
+      <c r="L5" s="88">
         <v>100</v>
       </c>
-      <c r="M5" s="87"/>
+      <c r="M5" s="88"/>
       <c r="N5" s="18" t="s">
         <v>97</v>
       </c>
@@ -8028,12 +8122,12 @@
       <c r="AZ5" s="21"/>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="H6" s="91"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
       <c r="N6" s="63"/>
       <c r="O6" s="63"/>
       <c r="P6" s="63"/>
@@ -8049,8 +8143,8 @@
       <c r="AZ6" s="23"/>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="H7" s="91"/>
-      <c r="I7" s="91"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
       <c r="J7" s="93"/>
       <c r="K7" s="93"/>
       <c r="L7" s="93"/>
@@ -8076,12 +8170,12 @@
     <row r="8" spans="1:52" x14ac:dyDescent="0.15">
       <c r="H8" s="64"/>
       <c r="I8" s="18"/>
-      <c r="J8" s="91"/>
-      <c r="K8" s="91"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
-      <c r="O8" s="92"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="91"/>
       <c r="P8" s="18"/>
       <c r="Q8" s="56"/>
       <c r="AR8" s="22"/>
@@ -8097,12 +8191,12 @@
     <row r="9" spans="1:52" x14ac:dyDescent="0.15">
       <c r="H9" s="64"/>
       <c r="I9" s="18"/>
-      <c r="J9" s="91"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="91"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="91"/>
+      <c r="O9" s="91"/>
       <c r="P9" s="18"/>
       <c r="Q9" s="56"/>
       <c r="AR9" s="22"/>
@@ -8118,12 +8212,12 @@
     <row r="10" spans="1:52" x14ac:dyDescent="0.15">
       <c r="H10" s="64"/>
       <c r="I10" s="18"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="91"/>
-      <c r="O10" s="91"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="92"/>
+      <c r="O10" s="92"/>
       <c r="P10" s="18"/>
       <c r="Q10" s="56"/>
       <c r="AR10" s="22"/>
@@ -8139,12 +8233,12 @@
     <row r="11" spans="1:52" x14ac:dyDescent="0.15">
       <c r="H11" s="64"/>
       <c r="I11" s="18"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="91"/>
-      <c r="L11" s="91"/>
-      <c r="M11" s="91"/>
-      <c r="N11" s="91"/>
-      <c r="O11" s="91"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
       <c r="P11" s="18"/>
       <c r="Q11" s="56"/>
       <c r="AR11" s="24"/>
@@ -8162,10 +8256,10 @@
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
-      <c r="L12" s="91"/>
-      <c r="M12" s="91"/>
-      <c r="N12" s="91"/>
-      <c r="O12" s="91"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="92"/>
+      <c r="O12" s="92"/>
       <c r="P12" s="18"/>
       <c r="Q12" s="56"/>
     </row>
@@ -8174,10 +8268,10 @@
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
-      <c r="L13" s="91"/>
-      <c r="M13" s="91"/>
-      <c r="N13" s="91"/>
-      <c r="O13" s="91"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="92"/>
+      <c r="O13" s="92"/>
       <c r="P13" s="18"/>
       <c r="Q13" s="56"/>
     </row>
@@ -8188,8 +8282,8 @@
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
-      <c r="N14" s="91"/>
-      <c r="O14" s="91"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="92"/>
       <c r="P14" s="18"/>
       <c r="Q14" s="56"/>
     </row>
@@ -8200,8 +8294,8 @@
       <c r="K15" s="18"/>
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
-      <c r="N15" s="91"/>
-      <c r="O15" s="91"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="92"/>
       <c r="P15" s="18"/>
       <c r="Q15" s="56"/>
     </row>
@@ -8449,6 +8543,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="N8:O9"/>
+    <mergeCell ref="N10:O11"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="J10:K11"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="N12:O13"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="L8:M9"/>
@@ -8456,13 +8557,6 @@
     <mergeCell ref="J6:K7"/>
     <mergeCell ref="H6:I7"/>
     <mergeCell ref="L6:M7"/>
-    <mergeCell ref="N14:O15"/>
-    <mergeCell ref="N8:O9"/>
-    <mergeCell ref="N10:O11"/>
-    <mergeCell ref="L10:M11"/>
-    <mergeCell ref="J10:K11"/>
-    <mergeCell ref="L12:M13"/>
-    <mergeCell ref="N12:O13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8503,28 +8597,28 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="H4" s="30"/>
-      <c r="I4" s="90" t="s">
+      <c r="I4" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="87"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
       <c r="Q4" s="31"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="H5" s="30"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="87"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="88"/>
       <c r="Q5" s="31"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
@@ -8826,7 +8920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AM9" sqref="AM9"/>
     </sheetView>
   </sheetViews>
@@ -8855,28 +8949,28 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="H4" s="30"/>
-      <c r="I4" s="90" t="s">
+      <c r="I4" s="87" t="s">
         <v>117</v>
       </c>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="87"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
       <c r="Q4" s="31"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="H5" s="30"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="87"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="88"/>
       <c r="Q5" s="31"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
@@ -11013,8 +11107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AJ32" sqref="AJ32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11241,9 +11335,11 @@
     </row>
     <row r="19" spans="8:17" x14ac:dyDescent="0.15">
       <c r="H19" s="30"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
+      <c r="I19" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="J19" s="20"/>
+      <c r="K19" s="21"/>
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
       <c r="N19" s="19" t="s">
@@ -11255,9 +11351,9 @@
     </row>
     <row r="20" spans="8:17" x14ac:dyDescent="0.15">
       <c r="H20" s="30"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="26"/>
       <c r="L20" s="18"/>
       <c r="M20" s="18"/>
       <c r="N20" s="24"/>
